--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AVERAGE_1_6_matched_error_tables_T55.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1071336664536341</v>
+        <v>0.1022639543468913</v>
       </c>
       <c r="C2">
-        <v>0.1071340792256203</v>
+        <v>0.1022643483565146</v>
       </c>
       <c r="D2">
-        <v>0.2410291817927589</v>
+        <v>0.230073309893088</v>
       </c>
       <c r="E2">
-        <v>0.4909472291323772</v>
+        <v>0.479659577088885</v>
       </c>
       <c r="F2">
-        <v>0.4909471837888557</v>
+        <v>0.4796595348963852</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01918402766243445</v>
+        <v>0.3374033227550764</v>
       </c>
       <c r="C3">
-        <v>2.406246608950652</v>
+        <v>2.647337262386587</v>
       </c>
       <c r="D3">
-        <v>25.68239176292845</v>
+        <v>27.11600199653427</v>
       </c>
       <c r="E3">
-        <v>5.067779766616585</v>
+        <v>5.207302756373425</v>
       </c>
       <c r="F3">
-        <v>5.199395079795454</v>
+        <v>5.324684877440589</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5196836042282321</v>
+        <v>-1.028804989961556</v>
       </c>
       <c r="C4">
-        <v>2.160178108357965</v>
+        <v>2.587274768884802</v>
       </c>
       <c r="D4">
-        <v>15.77092821324244</v>
+        <v>20.70914113668103</v>
       </c>
       <c r="E4">
-        <v>3.971262798310185</v>
+        <v>4.550729736721467</v>
       </c>
       <c r="F4">
-        <v>4.044998874673906</v>
+        <v>4.548070895770996</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.08327207206502535</v>
+        <v>-0.2137546113718506</v>
       </c>
       <c r="C5">
-        <v>1.387821432090607</v>
+        <v>1.449643478764507</v>
       </c>
       <c r="D5">
-        <v>6.641379762276184</v>
+        <v>6.637417689940448</v>
       </c>
       <c r="E5">
-        <v>2.577087457242417</v>
+        <v>2.576318631291644</v>
       </c>
       <c r="F5">
-        <v>2.650416387234092</v>
+        <v>2.637789546666938</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.06420601506820549</v>
+        <v>-0.08368731705856663</v>
       </c>
       <c r="C6">
-        <v>1.651416193262556</v>
+        <v>1.582719152019898</v>
       </c>
       <c r="D6">
-        <v>11.01538659301311</v>
+        <v>10.41298270791714</v>
       </c>
       <c r="E6">
-        <v>3.318943595937284</v>
+        <v>3.22691535493529</v>
       </c>
       <c r="F6">
-        <v>3.420448536658943</v>
+        <v>3.319351677802833</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1945022477302503</v>
+        <v>-0.40981972250463</v>
       </c>
       <c r="C7">
-        <v>1.88696164586958</v>
+        <v>2.002722685459293</v>
       </c>
       <c r="D7">
-        <v>13.84787768039429</v>
+        <v>13.90742892030138</v>
       </c>
       <c r="E7">
-        <v>3.721273663733196</v>
+        <v>3.729266539187214</v>
       </c>
       <c r="F7">
-        <v>3.838061532391533</v>
+        <v>3.820758303014839</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03388500947149099</v>
+        <v>-0.2294455457529222</v>
       </c>
       <c r="C8">
-        <v>1.929154385749522</v>
+        <v>2.061615647959201</v>
       </c>
       <c r="D8">
-        <v>12.12485178213322</v>
+        <v>12.33890367925494</v>
       </c>
       <c r="E8">
-        <v>3.482075786385647</v>
+        <v>3.512677565512517</v>
       </c>
       <c r="F8">
-        <v>3.613349716257635</v>
+        <v>3.628201800890946</v>
       </c>
       <c r="G8">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
